--- a/data/facts_graficos.xlsx
+++ b/data/facts_graficos.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -440,6 +440,36 @@
   <si>
     <t>crear barras y eliminar espacios entre barras</t>
   </si>
+  <si>
+    <t>Pareto</t>
+  </si>
+  <si>
+    <t>HISTOGRAMA</t>
+  </si>
+  <si>
+    <t>Crear etiquetas con limites</t>
+  </si>
+  <si>
+    <t>4.97-10.26</t>
+  </si>
+  <si>
+    <t>10.26-15.55</t>
+  </si>
+  <si>
+    <t>15.55-20.84</t>
+  </si>
+  <si>
+    <t>20.84-26.13</t>
+  </si>
+  <si>
+    <t>26.13-31.42</t>
+  </si>
+  <si>
+    <t>31.42-36.71</t>
+  </si>
+  <si>
+    <t>36.71-42</t>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +630,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -667,6 +697,8 @@
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -849,11 +881,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2081396336"/>
-        <c:axId val="-2080874704"/>
+        <c:axId val="-2107387152"/>
+        <c:axId val="-2107383904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2081396336"/>
+        <c:axId val="-2107387152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080874704"/>
+        <c:crossAx val="-2107383904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,7 +935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080874704"/>
+        <c:axId val="-2107383904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081396336"/>
+        <c:crossAx val="-2107387152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1173,8 +1205,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2040332048"/>
-        <c:axId val="-2040403568"/>
+        <c:axId val="-2107283824"/>
+        <c:axId val="-2107280560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1270,11 +1302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2039867440"/>
-        <c:axId val="-2043028912"/>
+        <c:axId val="-2107273776"/>
+        <c:axId val="-2107276976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2040332048"/>
+        <c:axId val="-2107283824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040403568"/>
+        <c:crossAx val="-2107280560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2040403568"/>
+        <c:axId val="-2107280560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31.0"/>
@@ -1376,12 +1408,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2040332048"/>
+        <c:crossAx val="-2107283824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2043028912"/>
+        <c:axId val="-2107276976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1419,13 +1451,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2039867440"/>
+        <c:crossAx val="-2107273776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2039867440"/>
+        <c:axId val="-2107273776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1466,8 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2043028912"/>
+        <c:crossAx val="-2107276976"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1695,16 +1728,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2142624608"/>
-        <c:axId val="-2080431008"/>
+        <c:axId val="-2110535264"/>
+        <c:axId val="-2110532112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142624608"/>
+        <c:axId val="-2110535264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1741,7 +1775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080431008"/>
+        <c:crossAx val="-2110532112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1749,7 +1783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080431008"/>
+        <c:axId val="-2110532112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142624608"/>
+        <c:crossAx val="-2110535264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2182,8 +2216,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2027746928"/>
-        <c:axId val="-1999688752"/>
+        <c:axId val="-2107221120"/>
+        <c:axId val="-2107217856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2441,11 +2475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2026522416"/>
-        <c:axId val="-2003156800"/>
+        <c:axId val="-2107211072"/>
+        <c:axId val="-2107214272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2027746928"/>
+        <c:axId val="-2107221120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1999688752"/>
+        <c:crossAx val="-2107217856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1999688752"/>
+        <c:axId val="-2107217856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="355.0"/>
@@ -2548,12 +2582,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2027746928"/>
+        <c:crossAx val="-2107221120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2003156800"/>
+        <c:axId val="-2107214272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2591,12 +2625,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2026522416"/>
+        <c:crossAx val="-2107211072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2026522416"/>
+        <c:axId val="-2107211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2640,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2003156800"/>
+        <c:crossAx val="-2107214272"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2704,6 +2739,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>¿Que cantidad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de accidentes son mas comunes en las minas?</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2754,9 +2819,38 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ACCIDENTES!$S$37:$S$43</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.97-10.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26-15.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.55-20.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.84-26.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.13-31.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.42-36.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.71-42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ACCIDENTES!$S$37:$S$43</c:f>
+              <c:f>ACCIDENTES!$T$37:$T$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2793,19 +2887,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="207"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2029265984"/>
-        <c:axId val="-2029469632"/>
+        <c:axId val="-2042389664"/>
+        <c:axId val="-2042047744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2029265984"/>
+        <c:axId val="-2042389664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2827,7 +2920,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2842,7 +2935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029469632"/>
+        <c:crossAx val="-2042047744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2850,7 +2943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029469632"/>
+        <c:axId val="-2042047744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2993,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029265984"/>
+        <c:crossAx val="-2042389664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2912,6 +3005,831 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ACCIDENTES!$S$52:$S$58</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.97-10.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26-15.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.55-20.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.84-26.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.13-31.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.42-36.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.71-42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ACCIDENTES!$T$52:$T$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2094479008"/>
+        <c:axId val="-2046780336"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ACCIDENTES!$S$52:$S$58</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.97-10.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26-15.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.55-20.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.84-26.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.13-31.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.42-36.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.71-42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ACCIDENTES!$U$52:$U$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2094479008"/>
+        <c:axId val="-2046780336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2094479008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2046780336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2046780336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2094479008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ACCIDENTES!$S$74:$S$80</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.97-10.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26-15.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.55-20.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.84-26.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.13-31.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.42-36.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.71-42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ACCIDENTES!$T$74:$T$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2017775280"/>
+        <c:axId val="-2016874608"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ACCIDENTES!$S$74:$S$80</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.97-10.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26-15.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.55-20.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.84-26.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.13-31.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.42-36.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.71-42</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ACCIDENTES!$U$74:$U$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2017775280"/>
+        <c:axId val="-2016874608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2017775280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2016874608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2016874608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2017775280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3110,6 +4028,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5664,6 +6662,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5857,16 +7861,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>177806</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5887,20 +7891,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5910,6 +7914,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6042,7 +8106,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:H9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -7068,11 +9132,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S998"/>
+  <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7086,6 +9150,7 @@
     <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7174,7 +9239,9 @@
         <v>0.11830985915492957</v>
       </c>
       <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="O2" s="32" t="s">
+        <v>136</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -7268,7 +9335,7 @@
         <v>5.6338028169014086E-2</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:M35" si="2">L4+M3</f>
+        <f t="shared" ref="M4:M34" si="2">L4+M3</f>
         <v>0.23943661971830985</v>
       </c>
       <c r="N4" s="13"/>
@@ -7845,7 +9912,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
         <v>107</v>
       </c>
@@ -7892,7 +9959,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
         <v>108</v>
       </c>
@@ -7939,7 +10006,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
         <v>109</v>
       </c>
@@ -7988,7 +10055,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
         <v>110</v>
       </c>
@@ -8037,7 +10104,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
         <v>111</v>
       </c>
@@ -8086,7 +10153,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
         <v>112</v>
       </c>
@@ -8134,8 +10201,11 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U22" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
         <v>113</v>
       </c>
@@ -8184,7 +10254,7 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
         <v>114</v>
       </c>
@@ -8233,7 +10303,7 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
         <v>115</v>
       </c>
@@ -8282,7 +10352,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>116</v>
       </c>
@@ -8331,7 +10401,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
         <v>117</v>
       </c>
@@ -8380,7 +10450,7 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
         <v>118</v>
       </c>
@@ -8429,7 +10499,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>119</v>
       </c>
@@ -8478,7 +10548,7 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
         <v>120</v>
       </c>
@@ -8529,7 +10599,7 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
         <v>36</v>
       </c>
@@ -8583,7 +10653,7 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
         <v>121</v>
       </c>
@@ -8637,7 +10707,7 @@
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
         <v>122</v>
       </c>
@@ -8691,7 +10761,7 @@
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19" t="s">
         <v>123</v>
       </c>
@@ -8745,7 +10815,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -8779,7 +10849,7 @@
       </c>
       <c r="R35" s="7"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -8806,7 +10876,7 @@
       </c>
       <c r="R36" s="7"/>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -8834,12 +10904,16 @@
         <f t="shared" ref="R37:R41" si="4">Q38</f>
         <v>10.260000000000005</v>
       </c>
-      <c r="S37">
-        <f t="array" ref="S37:S43">FREQUENCY(K2:K34,R37:R42)</f>
+      <c r="S37" t="str">
+        <f>ROUND(Q37,2)&amp;"-"&amp;R37</f>
+        <v>4.97-10.26</v>
+      </c>
+      <c r="T37">
+        <f t="array" ref="T37:T43">FREQUENCY(K2:K34,R37:R42)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -8854,7 +10928,7 @@
       <c r="L38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="26" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="P38" s="7">
         <v>2</v>
@@ -8867,11 +10941,15 @@
         <f t="shared" si="4"/>
         <v>15.550000000000004</v>
       </c>
-      <c r="S38">
+      <c r="S38" t="str">
+        <f t="shared" ref="S38:S43" si="5">ROUND(Q38,2)&amp;"-"&amp;R38</f>
+        <v>10.26-15.55</v>
+      </c>
+      <c r="T38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -8883,8 +10961,8 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="30" t="s">
-        <v>135</v>
+      <c r="O39" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="P39" s="7">
         <v>3</v>
@@ -8897,11 +10975,15 @@
         <f t="shared" si="4"/>
         <v>20.840000000000003</v>
       </c>
-      <c r="S39">
+      <c r="S39" t="str">
+        <f t="shared" si="5"/>
+        <v>15.55-20.84</v>
+      </c>
+      <c r="T39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -8913,7 +10995,9 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="O40" s="30" t="s">
+        <v>135</v>
+      </c>
       <c r="P40" s="7">
         <v>4</v>
       </c>
@@ -8925,11 +11009,15 @@
         <f t="shared" si="4"/>
         <v>26.130000000000003</v>
       </c>
-      <c r="S40">
+      <c r="S40" t="str">
+        <f t="shared" si="5"/>
+        <v>20.84-26.13</v>
+      </c>
+      <c r="T40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -8955,11 +11043,15 @@
         <f t="shared" si="4"/>
         <v>31.42</v>
       </c>
-      <c r="S41">
+      <c r="S41" t="str">
+        <f t="shared" si="5"/>
+        <v>26.13-31.42</v>
+      </c>
+      <c r="T41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -8985,11 +11077,15 @@
         <f>Q43</f>
         <v>36.71</v>
       </c>
-      <c r="S42">
+      <c r="S42" t="str">
+        <f t="shared" si="5"/>
+        <v>31.42-36.71</v>
+      </c>
+      <c r="T42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -9015,11 +11111,15 @@
         <f>P32</f>
         <v>42</v>
       </c>
-      <c r="S43">
+      <c r="S43" t="str">
+        <f t="shared" si="5"/>
+        <v>36.71-42</v>
+      </c>
+      <c r="T43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -9038,7 +11138,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -9057,7 +11157,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -9076,7 +11176,7 @@
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
     </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -9095,7 +11195,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -9114,7 +11214,7 @@
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -9133,7 +11233,7 @@
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -9152,7 +11252,7 @@
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -9171,7 +11271,7 @@
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -9189,8 +11289,17 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-    </row>
-    <row r="53" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S52" t="s">
+        <v>139</v>
+      </c>
+      <c r="T52">
+        <v>21</v>
+      </c>
+      <c r="U52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -9208,8 +11317,17 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-    </row>
-    <row r="54" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S53" t="s">
+        <v>140</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+      <c r="U53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -9227,8 +11345,17 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-    </row>
-    <row r="55" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S54" t="s">
+        <v>141</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -9246,8 +11373,17 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-    </row>
-    <row r="56" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S55" t="s">
+        <v>142</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -9265,8 +11401,17 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-    </row>
-    <row r="57" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S56" t="s">
+        <v>143</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -9284,8 +11429,17 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-    </row>
-    <row r="58" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -9303,8 +11457,17 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-    </row>
-    <row r="59" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S58" t="s">
+        <v>145</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -9323,7 +11486,7 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -9342,7 +11505,7 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -9361,7 +11524,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
     </row>
-    <row r="62" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -9380,7 +11543,7 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
     </row>
-    <row r="63" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -9399,7 +11562,7 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -9418,7 +11581,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
     </row>
-    <row r="65" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -9437,7 +11600,7 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -9456,7 +11619,7 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -9475,7 +11638,7 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
     </row>
-    <row r="68" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -9494,7 +11657,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -9513,7 +11676,7 @@
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
     </row>
-    <row r="70" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -9532,7 +11695,7 @@
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
     </row>
-    <row r="71" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -9551,7 +11714,7 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
     </row>
-    <row r="72" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -9570,7 +11733,7 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
     </row>
-    <row r="73" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -9589,7 +11752,7 @@
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
     </row>
-    <row r="74" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -9607,8 +11770,17 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-    </row>
-    <row r="75" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S74" t="s">
+        <v>139</v>
+      </c>
+      <c r="T74">
+        <v>21</v>
+      </c>
+      <c r="U74">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -9626,8 +11798,18 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-    </row>
-    <row r="76" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S75" t="s">
+        <v>140</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <f>T75+U74</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -9645,8 +11827,18 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-    </row>
-    <row r="77" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S76" t="s">
+        <v>141</v>
+      </c>
+      <c r="T76">
+        <v>5</v>
+      </c>
+      <c r="U76">
+        <f t="shared" ref="U76:U80" si="6">T76+U75</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -9664,8 +11856,18 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-    </row>
-    <row r="78" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S77" t="s">
+        <v>142</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -9683,8 +11885,18 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-    </row>
-    <row r="79" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S78" t="s">
+        <v>143</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -9702,8 +11914,18 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-    </row>
-    <row r="80" spans="1:18" ht="14" x14ac:dyDescent="0.15">
+      <c r="S79" t="s">
+        <v>144</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -9721,6 +11943,16 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
+      <c r="S80" t="s">
+        <v>145</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="81" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>

--- a/data/facts_graficos.xlsx
+++ b/data/facts_graficos.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="139">
   <si>
     <t>EMPRESA</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Grafico de Pareto</t>
   </si>
   <si>
-    <t>Ordenar tabla</t>
-  </si>
-  <si>
     <t>Acumular porcentaje</t>
   </si>
   <si>
@@ -414,34 +411,13 @@
     <t>acumulado de accidentes</t>
   </si>
   <si>
-    <t>Grafico de Chupetin (lollipop)</t>
-  </si>
-  <si>
     <t>seleccionar columna</t>
   </si>
   <si>
     <t>insertar gráfico de barra</t>
   </si>
   <si>
-    <t>añadir barra de errorr porcentual</t>
-  </si>
-  <si>
-    <t>direccion de barra de error es negativa</t>
-  </si>
-  <si>
-    <t>el fin de la barra sin simbolo</t>
-  </si>
-  <si>
-    <t>modificar barra: sin relleno ni borde</t>
-  </si>
-  <si>
-    <t>asegurarse que linea muestre su tope redondo</t>
-  </si>
-  <si>
     <t>crear barras y eliminar espacios entre barras</t>
-  </si>
-  <si>
-    <t>Pareto</t>
   </si>
   <si>
     <t>HISTOGRAMA</t>
@@ -450,32 +426,35 @@
     <t>Crear etiquetas con limites</t>
   </si>
   <si>
-    <t>4.97-10.26</t>
+    <t>POLIGONO DE FRECUENCIAS</t>
   </si>
   <si>
-    <t>10.26-15.55</t>
+    <t>OJIVA</t>
   </si>
   <si>
-    <t>15.55-20.84</t>
+    <t>duplicar columna de conteos</t>
   </si>
   <si>
-    <t>20.84-26.13</t>
+    <t>barras clusterizadas</t>
   </si>
   <si>
-    <t>26.13-31.42</t>
+    <t>editar una barra como linea</t>
   </si>
   <si>
-    <t>31.42-36.71</t>
+    <t>acumular columna de conteos</t>
   </si>
   <si>
-    <t>36.71-42</t>
+    <t xml:space="preserve">editar barra de acumulacion como linea </t>
+  </si>
+  <si>
+    <t>Ordenar tabla por conteo de MAYOR A MENOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -548,6 +527,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -630,7 +615,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -699,6 +684,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -881,11 +869,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2107387152"/>
-        <c:axId val="-2107383904"/>
+        <c:axId val="-2021681184"/>
+        <c:axId val="-2021678032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2107387152"/>
+        <c:axId val="-2021681184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107383904"/>
+        <c:crossAx val="-2021678032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -935,7 +923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107383904"/>
+        <c:axId val="-2021678032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107387152"/>
+        <c:crossAx val="-2021681184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1205,8 +1193,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2107283824"/>
-        <c:axId val="-2107280560"/>
+        <c:axId val="-2009143232"/>
+        <c:axId val="-2009140064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1302,11 +1290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2107273776"/>
-        <c:axId val="-2107276976"/>
+        <c:axId val="-2009133184"/>
+        <c:axId val="-2009136384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107283824"/>
+        <c:axId val="-2009143232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107280560"/>
+        <c:crossAx val="-2009140064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1356,7 +1344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107280560"/>
+        <c:axId val="-2009140064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31.0"/>
@@ -1408,12 +1396,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107283824"/>
+        <c:crossAx val="-2009143232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2107276976"/>
+        <c:axId val="-2009136384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1451,13 +1439,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107273776"/>
+        <c:crossAx val="-2009133184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2107273776"/>
+        <c:axId val="-2009133184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1454,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107276976"/>
+        <c:crossAx val="-2009136384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1584,14 +1572,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>¿Qué mineral tiene más minas?</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>¿Que cantidad</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de accidentes son mas comunes en las minas?</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1636,83 +1624,70 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="minus"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="1"/>
-            <c:val val="100.0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-                <a:round/>
-                <a:headEnd type="oval"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>MINERALES!$F$3:$F$8</c:f>
+              <c:f>ACCIDENTES!$S$11:$S$17</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>COBRE</c:v>
+                  <c:v>4.97-10.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>DIAMANTE</c:v>
+                  <c:v>10.26-15.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>HIERRO</c:v>
+                  <c:v>15.55-20.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ORO</c:v>
+                  <c:v>20.84-26.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>PLATA</c:v>
+                  <c:v>26.13-31.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ZINC</c:v>
+                  <c:v>31.42-36.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.71-42</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MINERALES!$H$3:$H$8</c:f>
+              <c:f>ACCIDENTES!$T$11:$T$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.580645161290323</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.032258064516129</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.064516129032258</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.225806451612903</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.064516129032258</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.032258064516129</c:v>
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,19 +1701,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="207"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2110535264"/>
-        <c:axId val="-2110532112"/>
+        <c:axId val="-2010096016"/>
+        <c:axId val="-2010099296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110535264"/>
+        <c:axId val="-2010096016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1760,7 +1734,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1775,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110532112"/>
+        <c:crossAx val="-2010099296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1783,7 +1757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110532112"/>
+        <c:axId val="-2010099296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,7 +1807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110535264"/>
+        <c:crossAx val="-2010096016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1897,39 +1871,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>¿Qué empresas vigilar para reducir accidentes?</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.270846456692913"/>
-          <c:y val="0.0277768292344881"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1969,17 +1911,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ACCIDENTES!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>accidentes_totales</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1992,215 +1923,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ACCIDENTES!$A$2:$A$34</c:f>
+              <c:f>ACCIDENTES!$O$74:$O$80</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Volcan</c:v>
+                  <c:v>4.97-10.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Buenaventura</c:v>
+                  <c:v>10.26-15.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ananea</c:v>
+                  <c:v>15.55-20.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Atacocha</c:v>
+                  <c:v>20.84-26.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Casapalca</c:v>
+                  <c:v>26.13-31.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Chungar</c:v>
+                  <c:v>31.42-36.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Corona</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pan American Silver</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Horizonte</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Poderosa</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Raura</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Doe Run</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>CIEM</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Ares</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Minera del Centro</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Huallanca</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Mineras del Sur</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Yauliyacu</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Retamas</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Milpo</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Yanacocha</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Argentum</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Calpa</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Shougang</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Minsur</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Arirahua</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Austria Duvaz</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Quenuales</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Santa Luisa</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Antamina</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Caudalosa</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Huarón</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>San Ignacio de Morococha</c:v>
+                  <c:v>36.71-42</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ACCIDENTES!$K$2:$K$34</c:f>
+              <c:f>ACCIDENTES!$P$74:$P$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2216,8 +1991,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2107221120"/>
-        <c:axId val="-2107217856"/>
+        <c:axId val="-2008920048"/>
+        <c:axId val="-2008916784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2225,17 +2000,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ACCIDENTES!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>acumulado de accidentes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2250,215 +2014,59 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ACCIDENTES!$A$2:$A$34</c:f>
+              <c:f>ACCIDENTES!$O$74:$O$80</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Volcan</c:v>
+                  <c:v>4.97-10.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Buenaventura</c:v>
+                  <c:v>10.26-15.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ananea</c:v>
+                  <c:v>15.55-20.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Atacocha</c:v>
+                  <c:v>20.84-26.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Casapalca</c:v>
+                  <c:v>26.13-31.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Chungar</c:v>
+                  <c:v>31.42-36.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Corona</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pan American Silver</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Horizonte</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Poderosa</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Raura</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Doe Run</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>CIEM</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Ares</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Minera del Centro</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Huallanca</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Mineras del Sur</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Yauliyacu</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Retamas</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Milpo</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Yanacocha</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Argentum</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Calpa</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Shougang</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Minsur</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Arirahua</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Austria Duvaz</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Quenuales</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Santa Luisa</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Antamina</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Caudalosa</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Huarón</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>San Ignacio de Morococha</c:v>
+                  <c:v>36.71-42</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ACCIDENTES!$M$2:$M$34</c:f>
+              <c:f>ACCIDENTES!$Q$74:$Q$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.11830985915493</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.183098591549296</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23943661971831</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.292957746478873</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.338028169014084</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.383098591549296</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.428169014084507</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.467605633802817</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.504225352112676</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.540845070422535</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.577464788732394</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.611267605633803</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.63943661971831</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.667605633802817</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.695774647887324</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.718309859154929</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.740845070422535</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.76338028169014</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.783098591549295</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.80281690140845</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.822535211267605</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.839436619718309</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.856338028169014</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.873239436619718</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.887323943661971</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.901408450704225</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.915492957746478</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.929577464788732</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.943661971830985</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.957746478873239</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.971830985915492</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.985915492957746</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.999999999999999</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2475,17 +2083,16 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2107211072"/>
-        <c:axId val="-2107214272"/>
+        <c:axId val="-2008920048"/>
+        <c:axId val="-2008916784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107221120"/>
+        <c:axId val="-2008920048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2522,7 +2129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107217856"/>
+        <c:crossAx val="-2008916784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2530,11 +2137,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107217856"/>
+        <c:axId val="-2008916784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="355.0"/>
-          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2552,6 +2157,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2582,71 +2188,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107221120"/>
+        <c:crossAx val="-2008920048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="-2107214272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2107211072"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="-2107211072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107214272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2739,36 +2284,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>¿Que cantidad</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> de accidentes son mas comunes en las minas?</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2821,7 +2336,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ACCIDENTES!$S$37:$S$43</c:f>
+              <c:f>ACCIDENTES!$O$52:$O$58</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2850,295 +2365,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ACCIDENTES!$T$37:$T$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="207"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2042389664"/>
-        <c:axId val="-2042047744"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2042389664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2042047744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2042047744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2042389664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>ACCIDENTES!$S$52:$S$58</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.97-10.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.26-15.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.55-20.84</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.84-26.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.13-31.42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.42-36.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.71-42</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ACCIDENTES!$T$52:$T$58</c:f>
+              <c:f>ACCIDENTES!$P$52:$P$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3177,8 +2404,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2094479008"/>
-        <c:axId val="-2046780336"/>
+        <c:axId val="-2006916624"/>
+        <c:axId val="-2081277136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3200,7 +2427,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>ACCIDENTES!$S$52:$S$58</c:f>
+              <c:f>ACCIDENTES!$O$52:$O$58</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3229,7 +2456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ACCIDENTES!$U$52:$U$58</c:f>
+              <c:f>ACCIDENTES!$Q$52:$Q$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3269,16 +2496,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094479008"/>
-        <c:axId val="-2046780336"/>
+        <c:axId val="-2006916624"/>
+        <c:axId val="-2081277136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094479008"/>
+        <c:axId val="-2006916624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3315,7 +2543,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046780336"/>
+        <c:crossAx val="-2081277136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3323,419 +2551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2046780336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2094479008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>ACCIDENTES!$S$74:$S$80</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.97-10.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.26-15.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.55-20.84</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.84-26.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.13-31.42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.42-36.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.71-42</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ACCIDENTES!$T$74:$T$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-2017775280"/>
-        <c:axId val="-2016874608"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>ACCIDENTES!$S$74:$S$80</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.97-10.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.26-15.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.55-20.84</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.84-26.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.13-31.42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31.42-36.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36.71-42</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ACCIDENTES!$U$74:$U$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2017775280"/>
-        <c:axId val="-2016874608"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2017775280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2016874608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2016874608"/>
+        <c:axId val="-2081277136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +2602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2017775280"/>
+        <c:crossAx val="-2006916624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4028,86 +2844,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6662,1012 +5398,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7787,36 +5517,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7861,20 +5561,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76206</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7891,20 +5591,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7921,20 +5621,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7944,36 +5644,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8106,7 +5776,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:H9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8440,8 +6110,8 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8733,7 +6403,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="J14" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8747,11 +6417,11 @@
         <v>18</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="5"/>
       <c r="J15" s="26" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8765,11 +6435,11 @@
         <v>14</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="5"/>
       <c r="J16" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8785,7 +6455,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="J17" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8801,7 +6471,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="J18" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8817,7 +6487,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="J19" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8833,7 +6503,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="J20" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8888,10 +6558,10 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="K24" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9062,9 +6732,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="24" t="s">
-        <v>127</v>
-      </c>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
@@ -9080,39 +6748,25 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="23" t="s">
-        <v>128</v>
-      </c>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="23" t="s">
-        <v>129</v>
-      </c>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="23" t="s">
-        <v>130</v>
-      </c>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="23" t="s">
-        <v>131</v>
-      </c>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="23" t="s">
-        <v>132</v>
-      </c>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="23" t="s">
-        <v>134</v>
-      </c>
+      <c r="D39" s="23"/>
     </row>
     <row r="79" spans="7:7" ht="13" x14ac:dyDescent="0.15">
       <c r="G79" s="11"/>
@@ -9132,11 +6786,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U998"/>
+  <dimension ref="A1:T998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T60" sqref="T60"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9153,7 +6807,7 @@
     <col min="19" max="19" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9185,19 +6839,19 @@
         <v>15</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="8">
         <v>4</v>
@@ -9239,16 +6893,14 @@
         <v>0.11830985915492957</v>
       </c>
       <c r="N2" s="13"/>
-      <c r="O2" s="32" t="s">
-        <v>136</v>
-      </c>
+      <c r="O2" s="32"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
@@ -9295,9 +6947,9 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
@@ -9339,14 +6991,16 @@
         <v>0.23943661971830985</v>
       </c>
       <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="8">
         <v>2</v>
@@ -9388,14 +7042,19 @@
         <v>0.29295774647887324</v>
       </c>
       <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="O5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="7">
+        <f>MIN(K2:K34)</f>
+        <v>5</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
@@ -9437,14 +7096,19 @@
         <v>0.3380281690140845</v>
       </c>
       <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="O6" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="7">
+        <f>MAX(K2:K34)</f>
+        <v>42</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -9485,13 +7149,19 @@
         <f t="shared" si="2"/>
         <v>0.38309859154929576</v>
       </c>
-      <c r="P7" s="7"/>
+      <c r="O7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="7">
+        <f>COUNT(K2:K34)</f>
+        <v>33</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -9532,13 +7202,19 @@
         <f t="shared" si="2"/>
         <v>0.42816901408450703</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="O8" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="7">
+        <f>P6-P5</f>
+        <v>37</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="8">
         <v>3</v>
@@ -9579,13 +7255,22 @@
         <f t="shared" si="2"/>
         <v>0.46760563380281689</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="O9" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="7">
+        <f>1+3.322*LOG(P7)</f>
+        <v>6.0445033082743427</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>ROUNDUP(P9,0)</f>
+        <v>7</v>
+      </c>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -9626,13 +7311,22 @@
         <f t="shared" si="2"/>
         <v>0.50422535211267605</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="O10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="7">
+        <f>P8/Q9</f>
+        <v>5.2857142857142856</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>ROUND(P10,2)</f>
+        <v>5.29</v>
+      </c>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="8">
         <v>0</v>
@@ -9673,13 +7367,32 @@
         <f t="shared" si="2"/>
         <v>0.54084507042253516</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>R11-$Q$10</f>
+        <v>4.9700000000000051</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" ref="R11:R15" si="3">Q12</f>
+        <v>10.260000000000005</v>
+      </c>
+      <c r="S11" t="str">
+        <f>ROUND(Q11,2)&amp;"-"&amp;R11</f>
+        <v>4.97-10.26</v>
+      </c>
+      <c r="T11">
+        <f t="array" ref="T11:T17">FREQUENCY(K2:K34,R11:R16)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="8">
         <v>0</v>
@@ -9720,13 +7433,31 @@
         <f t="shared" si="2"/>
         <v>0.57746478873239426</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>R12-$Q$10</f>
+        <v>10.260000000000005</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="3"/>
+        <v>15.550000000000004</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" ref="S12:S17" si="4">ROUND(Q12,2)&amp;"-"&amp;R12</f>
+        <v>10.26-15.55</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="8">
         <v>4</v>
@@ -9767,13 +7498,31 @@
         <f t="shared" si="2"/>
         <v>0.61126760563380267</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="7">
+        <f>R13-$Q$10</f>
+        <v>15.550000000000004</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" si="3"/>
+        <v>20.840000000000003</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="4"/>
+        <v>15.55-20.84</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="8">
         <v>0</v>
@@ -9814,13 +7563,31 @@
         <f t="shared" si="2"/>
         <v>0.63943661971830967</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O14" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="7">
+        <f>R14-$Q$10</f>
+        <v>20.840000000000003</v>
+      </c>
+      <c r="R14" s="7">
+        <f t="shared" si="3"/>
+        <v>26.130000000000003</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="4"/>
+        <v>20.84-26.13</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -9861,13 +7628,29 @@
         <f t="shared" si="2"/>
         <v>0.66760563380281668</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>R15-$Q$10</f>
+        <v>26.130000000000003</v>
+      </c>
+      <c r="R15" s="7">
+        <f t="shared" si="3"/>
+        <v>31.42</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="4"/>
+        <v>26.13-31.42</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="8">
         <v>6</v>
@@ -9908,13 +7691,29 @@
         <f t="shared" si="2"/>
         <v>0.69577464788732368</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="7">
+        <f>R16-$Q$10</f>
+        <v>31.42</v>
+      </c>
+      <c r="R16" s="7">
+        <f>Q17</f>
+        <v>36.71</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="4"/>
+        <v>31.42-36.71</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="8">
         <v>0</v>
@@ -9955,13 +7754,29 @@
         <f t="shared" si="2"/>
         <v>0.71830985915492929</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="7"/>
+      <c r="P17" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>R17-$Q$10</f>
+        <v>36.71</v>
+      </c>
+      <c r="R17" s="7">
+        <f>P6</f>
+        <v>42</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="4"/>
+        <v>36.71-42</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -10002,13 +7817,16 @@
         <f t="shared" si="2"/>
         <v>0.74084507042253489</v>
       </c>
+      <c r="O18" s="33" t="s">
+        <v>129</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -10055,9 +7873,9 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -10104,9 +7922,9 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -10153,9 +7971,9 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="8">
         <v>2</v>
@@ -10201,13 +8019,10 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="U22" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="8">
         <v>0</v>
@@ -10254,9 +8069,9 @@
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="8">
         <v>0</v>
@@ -10303,9 +8118,9 @@
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -10352,9 +8167,9 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -10401,9 +8216,9 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="8">
         <v>0</v>
@@ -10450,9 +8265,9 @@
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="8">
         <v>0</v>
@@ -10499,9 +8314,9 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="8">
         <v>0</v>
@@ -10548,9 +8363,9 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="8">
         <v>0</v>
@@ -10592,14 +8407,8 @@
         <v>0.94366197183098532</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
         <v>36</v>
       </c>
@@ -10643,19 +8452,10 @@
         <v>0.95774647887323883</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" s="7">
-        <f>MIN(K2:K34)</f>
-        <v>5</v>
-      </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="8">
         <v>0</v>
@@ -10697,19 +8497,10 @@
         <v>0.97183098591549233</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="P32" s="7">
-        <f>MAX(K2:K34)</f>
-        <v>42</v>
-      </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B33" s="8">
         <v>0</v>
@@ -10751,19 +8542,10 @@
         <v>0.98591549295774583</v>
       </c>
       <c r="N33" s="7"/>
-      <c r="O33" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="P33" s="7">
-        <f>COUNT(K2:K34)</f>
-        <v>33</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="8">
         <v>3</v>
@@ -10805,17 +8587,8 @@
         <v>0.99999999999999933</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="P34" s="7">
-        <f>P32-P31</f>
-        <v>37</v>
-      </c>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -10836,20 +8609,8 @@
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="P35" s="7">
-        <f>1+3.322*LOG(P33)</f>
-        <v>6.0445033082743427</v>
-      </c>
-      <c r="Q35" s="7">
-        <f>ROUNDUP(P35,0)</f>
-        <v>7</v>
-      </c>
-      <c r="R35" s="7"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -10863,20 +8624,8 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="P36" s="7">
-        <f>P34/Q35</f>
-        <v>5.2857142857142856</v>
-      </c>
-      <c r="Q36" s="7">
-        <f>ROUND(P36,2)</f>
-        <v>5.29</v>
-      </c>
-      <c r="R36" s="7"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -10890,30 +8639,8 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="P37" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="7">
-        <f t="shared" ref="Q37:Q42" si="3">R37-$Q$36</f>
-        <v>4.9700000000000051</v>
-      </c>
-      <c r="R37" s="7">
-        <f t="shared" ref="R37:R41" si="4">Q38</f>
-        <v>10.260000000000005</v>
-      </c>
-      <c r="S37" t="str">
-        <f>ROUND(Q37,2)&amp;"-"&amp;R37</f>
-        <v>4.97-10.26</v>
-      </c>
-      <c r="T37">
-        <f t="array" ref="T37:T43">FREQUENCY(K2:K34,R37:R42)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -10927,29 +8654,8 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="P38" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="3"/>
-        <v>10.260000000000005</v>
-      </c>
-      <c r="R38" s="7">
-        <f t="shared" si="4"/>
-        <v>15.550000000000004</v>
-      </c>
-      <c r="S38" t="str">
-        <f t="shared" ref="S38:S43" si="5">ROUND(Q38,2)&amp;"-"&amp;R38</f>
-        <v>10.26-15.55</v>
-      </c>
-      <c r="T38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -10961,29 +8667,8 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="P39" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="3"/>
-        <v>15.550000000000004</v>
-      </c>
-      <c r="R39" s="7">
-        <f t="shared" si="4"/>
-        <v>20.840000000000003</v>
-      </c>
-      <c r="S39" t="str">
-        <f t="shared" si="5"/>
-        <v>15.55-20.84</v>
-      </c>
-      <c r="T39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -10995,29 +8680,8 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="P40" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="7">
-        <f t="shared" si="3"/>
-        <v>20.840000000000003</v>
-      </c>
-      <c r="R40" s="7">
-        <f t="shared" si="4"/>
-        <v>26.130000000000003</v>
-      </c>
-      <c r="S40" t="str">
-        <f t="shared" si="5"/>
-        <v>20.84-26.13</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -11031,27 +8695,8 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="7">
-        <f t="shared" si="3"/>
-        <v>26.130000000000003</v>
-      </c>
-      <c r="R41" s="7">
-        <f t="shared" si="4"/>
-        <v>31.42</v>
-      </c>
-      <c r="S41" t="str">
-        <f t="shared" si="5"/>
-        <v>26.13-31.42</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -11065,27 +8710,8 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q42" s="7">
-        <f t="shared" si="3"/>
-        <v>31.42</v>
-      </c>
-      <c r="R42" s="7">
-        <f>Q43</f>
-        <v>36.71</v>
-      </c>
-      <c r="S42" t="str">
-        <f t="shared" si="5"/>
-        <v>31.42-36.71</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -11099,27 +8725,8 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q43" s="7">
-        <f>R43-$Q$36</f>
-        <v>36.71</v>
-      </c>
-      <c r="R43" s="7">
-        <f>P32</f>
-        <v>42</v>
-      </c>
-      <c r="S43" t="str">
-        <f t="shared" si="5"/>
-        <v>36.71-42</v>
-      </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -11138,7 +8745,7 @@
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
     </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -11157,7 +8764,7 @@
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
     </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -11175,8 +8782,11 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S46" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -11195,7 +8805,7 @@
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
     </row>
-    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -11209,12 +8819,14 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
+      <c r="O48" s="35" t="s">
+        <v>133</v>
+      </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -11228,12 +8840,14 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
+      <c r="O49" s="35" t="s">
+        <v>134</v>
+      </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -11247,12 +8861,11 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O50" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -11266,12 +8879,8 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -11285,21 +8894,18 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" t="s">
-        <v>139</v>
-      </c>
-      <c r="T52">
+      <c r="O52" t="str">
+        <f>S11</f>
+        <v>4.97-10.26</v>
+      </c>
+      <c r="P52">
         <v>21</v>
       </c>
-      <c r="U52">
+      <c r="Q52">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -11313,21 +8919,18 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" t="s">
-        <v>140</v>
-      </c>
-      <c r="T53">
+      <c r="O53" t="str">
+        <f t="shared" ref="O53:O58" si="5">S12</f>
+        <v>10.26-15.55</v>
+      </c>
+      <c r="P53">
         <v>5</v>
       </c>
-      <c r="U53">
+      <c r="Q53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -11341,21 +8944,18 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" t="s">
-        <v>141</v>
-      </c>
-      <c r="T54">
+      <c r="O54" t="str">
+        <f t="shared" si="5"/>
+        <v>15.55-20.84</v>
+      </c>
+      <c r="P54">
         <v>5</v>
       </c>
-      <c r="U54">
+      <c r="Q54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -11369,21 +8969,18 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" t="s">
-        <v>142</v>
-      </c>
-      <c r="T55">
+      <c r="O55" t="str">
+        <f t="shared" si="5"/>
+        <v>20.84-26.13</v>
+      </c>
+      <c r="P55">
         <v>1</v>
       </c>
-      <c r="U55">
+      <c r="Q55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -11397,21 +8994,18 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" t="s">
-        <v>143</v>
-      </c>
-      <c r="T56">
+      <c r="O56" t="str">
+        <f t="shared" si="5"/>
+        <v>26.13-31.42</v>
+      </c>
+      <c r="P56">
         <v>0</v>
       </c>
-      <c r="U56">
+      <c r="Q56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -11425,21 +9019,18 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" t="s">
-        <v>144</v>
-      </c>
-      <c r="T57">
+      <c r="O57" t="str">
+        <f t="shared" si="5"/>
+        <v>31.42-36.71</v>
+      </c>
+      <c r="P57">
         <v>0</v>
       </c>
-      <c r="U57">
+      <c r="Q57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -11453,21 +9044,18 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" t="s">
-        <v>145</v>
-      </c>
-      <c r="T58">
+      <c r="O58" t="str">
+        <f t="shared" si="5"/>
+        <v>36.71-42</v>
+      </c>
+      <c r="P58">
         <v>1</v>
       </c>
-      <c r="U58">
+      <c r="Q58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -11481,12 +9069,8 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-    </row>
-    <row r="60" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -11500,12 +9084,8 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-    </row>
-    <row r="61" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -11519,12 +9099,8 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-    </row>
-    <row r="62" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -11538,12 +9114,8 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-    </row>
-    <row r="63" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -11557,12 +9129,8 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-    </row>
-    <row r="64" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -11576,12 +9144,8 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-    </row>
-    <row r="65" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -11595,12 +9159,8 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-    </row>
-    <row r="66" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -11614,12 +9174,8 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-    </row>
-    <row r="67" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -11633,12 +9189,8 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-    </row>
-    <row r="68" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -11652,12 +9204,8 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-    </row>
-    <row r="69" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -11671,12 +9219,8 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-    </row>
-    <row r="70" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -11690,12 +9234,11 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-    </row>
-    <row r="71" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+      <c r="O70" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -11709,12 +9252,14 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-    </row>
-    <row r="72" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+      <c r="O71" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="S71" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -11728,12 +9273,11 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-    </row>
-    <row r="73" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+      <c r="O72" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -11747,12 +9291,8 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-    </row>
-    <row r="74" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -11766,21 +9306,18 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" t="s">
-        <v>139</v>
-      </c>
-      <c r="T74">
+      <c r="O74" t="str">
+        <f>O52</f>
+        <v>4.97-10.26</v>
+      </c>
+      <c r="P74">
         <v>21</v>
       </c>
-      <c r="U74">
+      <c r="Q74">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -11794,22 +9331,19 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" t="s">
-        <v>140</v>
-      </c>
-      <c r="T75">
+      <c r="O75" t="str">
+        <f t="shared" ref="O75:O80" si="6">O53</f>
+        <v>10.26-15.55</v>
+      </c>
+      <c r="P75">
         <v>5</v>
       </c>
-      <c r="U75">
-        <f>T75+U74</f>
+      <c r="Q75">
+        <f>P75+Q74</f>
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -11823,22 +9357,19 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" t="s">
-        <v>141</v>
-      </c>
-      <c r="T76">
+      <c r="O76" t="str">
+        <f t="shared" si="6"/>
+        <v>15.55-20.84</v>
+      </c>
+      <c r="P76">
         <v>5</v>
       </c>
-      <c r="U76">
-        <f t="shared" ref="U76:U80" si="6">T76+U75</f>
+      <c r="Q76">
+        <f t="shared" ref="Q76:Q80" si="7">P76+Q75</f>
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -11852,22 +9383,19 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" t="s">
-        <v>142</v>
-      </c>
-      <c r="T77">
+      <c r="O77" t="str">
+        <f t="shared" si="6"/>
+        <v>20.84-26.13</v>
+      </c>
+      <c r="P77">
         <v>1</v>
       </c>
-      <c r="U77">
-        <f t="shared" si="6"/>
+      <c r="Q77">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -11881,22 +9409,19 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" t="s">
-        <v>143</v>
-      </c>
-      <c r="T78">
+      <c r="O78" t="str">
+        <f t="shared" si="6"/>
+        <v>26.13-31.42</v>
+      </c>
+      <c r="P78">
         <v>0</v>
       </c>
-      <c r="U78">
-        <f t="shared" si="6"/>
+      <c r="Q78">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -11910,22 +9435,19 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" t="s">
-        <v>144</v>
-      </c>
-      <c r="T79">
+      <c r="O79" t="str">
+        <f t="shared" si="6"/>
+        <v>31.42-36.71</v>
+      </c>
+      <c r="P79">
         <v>0</v>
       </c>
-      <c r="U79">
-        <f t="shared" si="6"/>
+      <c r="Q79">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -11939,18 +9461,15 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" t="s">
-        <v>145</v>
-      </c>
-      <c r="T80">
+      <c r="O80" t="str">
+        <f t="shared" si="6"/>
+        <v>36.71-42</v>
+      </c>
+      <c r="P80">
         <v>1</v>
       </c>
-      <c r="U80">
-        <f t="shared" si="6"/>
+      <c r="Q80">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
     </row>
@@ -11968,10 +9487,6 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
     </row>
     <row r="82" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
@@ -11987,10 +9502,6 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
     </row>
     <row r="83" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
@@ -12006,10 +9517,6 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
     </row>
     <row r="84" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
@@ -12025,10 +9532,6 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
     </row>
     <row r="85" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
@@ -12044,10 +9547,6 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
     </row>
     <row r="86" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
@@ -12063,10 +9562,6 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
     </row>
     <row r="87" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
@@ -12082,10 +9577,6 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
     </row>
     <row r="88" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
@@ -12101,10 +9592,6 @@
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
     </row>
     <row r="89" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
@@ -12120,10 +9607,6 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
     </row>
     <row r="90" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
@@ -12139,10 +9622,6 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
     </row>
     <row r="91" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
@@ -12158,10 +9637,6 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
     </row>
     <row r="92" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
@@ -12177,10 +9652,6 @@
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
     </row>
     <row r="93" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
@@ -12196,10 +9667,6 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
     </row>
     <row r="94" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
@@ -12215,10 +9682,6 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
     </row>
     <row r="95" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
@@ -12234,10 +9697,6 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
     </row>
     <row r="96" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
